--- a/20230215_VXI-11 通信の概要/301j_VXI_11_Table_B_1.xlsx
+++ b/20230215_VXI-11 通信の概要/301j_VXI_11_Table_B_1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F76453F-F851-403B-A5D4-96CC65D077F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E49C3-B68F-4015-AC3D-9658B05777CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet6!$A$1:$I$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>device_abort</t>
   </si>
@@ -87,10 +90,168 @@
     <t>device_intr_srq</t>
   </si>
   <si>
-    <t>abort</t>
-  </si>
-  <si>
-    <t>core</t>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device_SrqParms</t>
+  </si>
+  <si>
+    <t>Device_Error</t>
+  </si>
+  <si>
+    <t>Device_Link</t>
+  </si>
+  <si>
+    <t>Device_RemoteFunc</t>
+  </si>
+  <si>
+    <t>Device_DocmdResp</t>
+  </si>
+  <si>
+    <t>Device_DocmdParms</t>
+  </si>
+  <si>
+    <t>Device_EnableSrqParms</t>
+  </si>
+  <si>
+    <t>Device_LockParms</t>
+  </si>
+  <si>
+    <t>Device_GenericParms</t>
+  </si>
+  <si>
+    <t>Device_ReadStbResp</t>
+  </si>
+  <si>
+    <t>Device_ReadResp</t>
+  </si>
+  <si>
+    <t>Device_ReadParms</t>
+  </si>
+  <si>
+    <t>Device_WriteResp</t>
+  </si>
+  <si>
+    <t>Device_WriteParms</t>
+  </si>
+  <si>
+    <t>Create_LinkResp</t>
+  </si>
+  <si>
+    <t>Create_LinkParms</t>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロシージャ番号</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスへのリンクを開く</t>
+  </si>
+  <si>
+    <t>デバイスがメッセージを受信する</t>
+  </si>
+  <si>
+    <t>デバイスが結果を返す</t>
+  </si>
+  <si>
+    <t>デバイスがステータスバイトを返す</t>
+  </si>
+  <si>
+    <t>デバイスがトリガを実行する</t>
+  </si>
+  <si>
+    <t>デバイスが自身をクリアする</t>
+  </si>
+  <si>
+    <t>デバイスがフロント・パネルをディセーブルにする</t>
+  </si>
+  <si>
+    <t>デバイスがフロントパネルを有効にする</t>
+  </si>
+  <si>
+    <t>デバイスがロックされた</t>
+  </si>
+  <si>
+    <t>デバイスのロックが解除された</t>
+  </si>
+  <si>
+    <t>デバイスが割り込みチャンネルを作成</t>
+  </si>
+  <si>
+    <t>デバイスが割り込みチャネルを破棄した</t>
+  </si>
+  <si>
+    <t>デバイスがサービス要求の送信を有効／無効にする</t>
+  </si>
+  <si>
+    <t>デバイスがコマンドを実行する</t>
+  </si>
+  <si>
+    <t>デバイスへのリンクのクローズ</t>
+  </si>
+  <si>
+    <t>デバイスが進行中の呼び出しを中止する</t>
+  </si>
+  <si>
+    <t>デバイスがサービス要求の送信に使用</t>
+  </si>
+  <si>
+    <t>コア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アボート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタラプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>opens a link to a device</t>
@@ -141,34 +302,14 @@
     <t>device aborts an in-progress call</t>
   </si>
   <si>
-    <t>interrupt</t>
-  </si>
-  <si>
     <t>used by device to send a service request</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Table B.1 Network instrument Protocol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VXI-11.pdf</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,18 +325,55 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -207,8 +385,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -233,15 +441,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>145144</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>362858</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76742</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>909387</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,8 +472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6506483" cy="3886742"/>
+          <a:off x="145144" y="4639582"/>
+          <a:ext cx="8225493" cy="4892221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,228 +782,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5341DD4-761D-44E8-8056-4BD80C5DA51F}">
-  <dimension ref="A20:C41"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="50.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>41</v>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>